--- a/poland_inflation_ratings.xlsx
+++ b/poland_inflation_ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python383\notebooks_jupyter\inflation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcinSikorski\notebooks\stock_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A711C-DBD0-45C2-A6B5-33D25DB021A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F12AE-0D4F-42F2-93BC-61471695E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="14292" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
@@ -1445,10 +1445,105 @@
       <c r="L26" s="3">
         <v>7.7</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L27" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M27" s="3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>